--- a/src/assets/recursos/sectores.xlsx
+++ b/src/assets/recursos/sectores.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/2-AREAS/PROYECTO DE GRADO-L/app_pdg/src/assets/recursos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C7D8B1-FB88-CE42-BE54-D5D1F689F0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20261A97-6E03-4C41-81BD-8DFEEA6B851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E2C6EFF1-2EFC-F64B-AB31-72D527FCC65E}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="32000" windowHeight="17500" activeTab="1" xr2:uid="{E2C6EFF1-2EFC-F64B-AB31-72D527FCC65E}"/>
   </bookViews>
   <sheets>
-    <sheet name="sisb" sheetId="1" r:id="rId1"/>
-    <sheet name="dane" sheetId="2" r:id="rId2"/>
+    <sheet name="sectores" sheetId="1" r:id="rId1"/>
+    <sheet name="industrias" sheetId="3" r:id="rId2"/>
+    <sheet name="dane" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="148">
   <si>
     <t>seccion</t>
   </si>
@@ -217,6 +218,270 @@
   </si>
   <si>
     <t>Transportation</t>
+  </si>
+  <si>
+    <t>Bienes de consumo</t>
+  </si>
+  <si>
+    <t>Procesamiento de Extractivos y Minerales</t>
+  </si>
+  <si>
+    <t>Finanzas</t>
+  </si>
+  <si>
+    <t>Alimentos y bebidas</t>
+  </si>
+  <si>
+    <t>Atención médica</t>
+  </si>
+  <si>
+    <t>Infraestructura</t>
+  </si>
+  <si>
+    <t>Recursos Renovables y Energías Alternativas</t>
+  </si>
+  <si>
+    <t>Transformación de recursos</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Tecnología y Comunicaciones</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id_sector</t>
+  </si>
+  <si>
+    <t>Ropa, accesorios y calzado</t>
+  </si>
+  <si>
+    <t>Fabricación de electrodomésticos</t>
+  </si>
+  <si>
+    <t>Productos de construcción y mobiliario</t>
+  </si>
+  <si>
+    <t>Comercio electrónico</t>
+  </si>
+  <si>
+    <t>Productos domésticos y personales</t>
+  </si>
+  <si>
+    <t>Minoristas y Distribuidores Multilínea y Especializados</t>
+  </si>
+  <si>
+    <t>Juguetes y artículos deportivos</t>
+  </si>
+  <si>
+    <t>Explotaciones de carbón</t>
+  </si>
+  <si>
+    <t>Materiales de construcción</t>
+  </si>
+  <si>
+    <t>Productores de hierro y acero</t>
+  </si>
+  <si>
+    <t>Metales y minería</t>
+  </si>
+  <si>
+    <t>Petróleo y gas - Exploración y producción</t>
+  </si>
+  <si>
+    <t>Petróleo y gas - Midstream</t>
+  </si>
+  <si>
+    <t>Petróleo y gas - Refino y comercialización</t>
+  </si>
+  <si>
+    <t>Petróleo y gas - Servicios</t>
+  </si>
+  <si>
+    <t>Actividades de gestión y custodia de activos</t>
+  </si>
+  <si>
+    <t>Bancos comerciales</t>
+  </si>
+  <si>
+    <t>Financiación al consumo</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Banca de inversión y corretaje</t>
+  </si>
+  <si>
+    <t>Financiación hipotecaria</t>
+  </si>
+  <si>
+    <t>Bolsas de valores y materias primas</t>
+  </si>
+  <si>
+    <t>Productos agrícolas</t>
+  </si>
+  <si>
+    <t>Bebidas alcohólicas</t>
+  </si>
+  <si>
+    <t>Minoristas y distribuidores de alimentos</t>
+  </si>
+  <si>
+    <t>Carne, aves y productos lácteos</t>
+  </si>
+  <si>
+    <t>Bebidas sin alcohol</t>
+  </si>
+  <si>
+    <t>Alimentos procesados</t>
+  </si>
+  <si>
+    <t>Restaurantes</t>
+  </si>
+  <si>
+    <t>Tabaco</t>
+  </si>
+  <si>
+    <t>Biotecnología y farmacia</t>
+  </si>
+  <si>
+    <t>Minoristas de medicamentos</t>
+  </si>
+  <si>
+    <t>Asistencia sanitaria</t>
+  </si>
+  <si>
+    <t>Distribuidores sanitarios</t>
+  </si>
+  <si>
+    <t>Equipos y suministros médicos</t>
+  </si>
+  <si>
+    <t>Compañías eléctricas y grupos electrógenos</t>
+  </si>
+  <si>
+    <t>Servicios de ingeniería y construcción</t>
+  </si>
+  <si>
+    <t>Servicios públicos y distribuidores de gas</t>
+  </si>
+  <si>
+    <t>Constructores de viviendas</t>
+  </si>
+  <si>
+    <t>Bienes inmuebles</t>
+  </si>
+  <si>
+    <t>Servicios inmobiliarios</t>
+  </si>
+  <si>
+    <t>Gestión de residuos</t>
+  </si>
+  <si>
+    <t>Utilidades y servicios del agua</t>
+  </si>
+  <si>
+    <t>Biocarburantes</t>
+  </si>
+  <si>
+    <t>Gestión forestal</t>
+  </si>
+  <si>
+    <t>Pilas de combustible y baterías industriales</t>
+  </si>
+  <si>
+    <t>Productos de pasta y papel</t>
+  </si>
+  <si>
+    <t>Tecnología solar y promotores de proyectos</t>
+  </si>
+  <si>
+    <t>Tecnología eólica y promotores de proyectos</t>
+  </si>
+  <si>
+    <t>Aeroespacial y defensa</t>
+  </si>
+  <si>
+    <t>Productos químicos</t>
+  </si>
+  <si>
+    <t>Envases y embalajes</t>
+  </si>
+  <si>
+    <t>Material eléctrico y electrónico</t>
+  </si>
+  <si>
+    <t>Maquinaria y bienes industriales</t>
+  </si>
+  <si>
+    <t>Publicidad y marketing</t>
+  </si>
+  <si>
+    <t>Casinos y juegos</t>
+  </si>
+  <si>
+    <t>Hoteles y alojamientos</t>
+  </si>
+  <si>
+    <t>Instalaciones de ocio</t>
+  </si>
+  <si>
+    <t>Medios de comunicación y entretenimiento</t>
+  </si>
+  <si>
+    <t>Servicios profesionales y comerciales</t>
+  </si>
+  <si>
+    <t>Servicios de fabricación electrónica y fabricación de diseños originales</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Medios y servicios de Internet</t>
+  </si>
+  <si>
+    <t>Semiconductores</t>
+  </si>
+  <si>
+    <t>Software y servicios informáticos</t>
+  </si>
+  <si>
+    <t>Servicios de telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Carga aérea y logística</t>
+  </si>
+  <si>
+    <t>Aerolíneas</t>
+  </si>
+  <si>
+    <t>Recambios para automóviles</t>
+  </si>
+  <si>
+    <t>Automóviles</t>
+  </si>
+  <si>
+    <t>Alquiler de coches</t>
+  </si>
+  <si>
+    <t>Líneas de cruceros</t>
+  </si>
+  <si>
+    <t>Transporte marítimo</t>
+  </si>
+  <si>
+    <t>Transporte ferroviario</t>
+  </si>
+  <si>
+    <t>Transporte por carretera</t>
   </si>
 </sst>
 </file>
@@ -226,7 +491,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +544,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,18 +574,19 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -650,260 +923,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DB315C-3255-1C4E-B2B3-2357DB1C8C92}">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="5"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="5"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="5"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="5"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="5"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="6"/>
-    </row>
-    <row r="33" spans="6:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="F33" s="7"/>
-    </row>
-    <row r="37" spans="6:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="F37" s="7"/>
-    </row>
-    <row r="128" spans="6:6" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="F128" s="8"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F131" s="5"/>
-    </row>
-    <row r="133" spans="6:6" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="F133" s="8"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F134" s="6"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F135" s="5"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F138" s="5"/>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F139" s="5"/>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F140" s="5"/>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F141" s="5"/>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F143" s="5"/>
-    </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F144" s="6"/>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F145" s="5"/>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F146" s="5"/>
-    </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F147" s="5"/>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F148" s="5"/>
-    </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F149" s="5"/>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F150" s="5"/>
-    </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F151" s="5"/>
-    </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F152" s="5"/>
-    </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F153" s="5"/>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F154" s="6"/>
-    </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F155" s="5"/>
-    </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F156" s="5"/>
-    </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F157" s="5"/>
-    </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F158" s="5"/>
-    </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F159" s="5"/>
-    </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F160" s="6"/>
-    </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F161" s="5"/>
-    </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F162" s="5"/>
-    </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F163" s="5"/>
-    </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F164" s="6"/>
-    </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F165" s="5"/>
-    </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F166" s="5"/>
-    </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F167" s="5"/>
-    </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F168" s="5"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="33" spans="7:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="37" spans="7:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="128" spans="7:7" ht="48" x14ac:dyDescent="0.55000000000000004">
+      <c r="G128" s="7"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G131" s="4"/>
+    </row>
+    <row r="133" spans="7:7" ht="48" x14ac:dyDescent="0.55000000000000004">
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G164" s="5"/>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G168" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -911,6 +1253,879 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C95511F-00C5-A445-8C06-9BADDDE9C4BD}">
+  <dimension ref="A1:C78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="9">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="9">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="9">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="9">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="9">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="9">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="9">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="9">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="9">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="9">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="9">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="9">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="9">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="9">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" s="9">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" s="9">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="9">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="9">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" s="9">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="9">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" s="9">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" s="9">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" s="9">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" s="9">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" s="9">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" s="9">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="9">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" s="9">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46" s="9">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47" s="9">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48" s="9">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" s="9">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" s="9">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" s="9">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52" s="9">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53" s="9">
+        <v>52</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" s="9">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55" s="9">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" s="9">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57" s="9">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58" s="9">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59" s="9">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60" s="9">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61" s="9">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62" s="9">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63" s="9">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64" s="9">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65" s="9">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66" s="9">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67" s="9">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" s="9">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69" s="9">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>11</v>
+      </c>
+      <c r="B70" s="9">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>11</v>
+      </c>
+      <c r="B71" s="9">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72" s="9">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>11</v>
+      </c>
+      <c r="B73" s="9">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74" s="9">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>11</v>
+      </c>
+      <c r="B75" s="9">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>11</v>
+      </c>
+      <c r="B76" s="9">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>11</v>
+      </c>
+      <c r="B77" s="9">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>11</v>
+      </c>
+      <c r="B78" s="9">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBEF336-6FFA-BB4A-B20D-E5EE2C026359}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -944,10 +2159,10 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
     </row>
@@ -958,10 +2173,10 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>9</v>
       </c>
     </row>
@@ -972,10 +2187,10 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>33</v>
       </c>
     </row>
@@ -986,10 +2201,10 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>35</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>35</v>
       </c>
     </row>
@@ -1000,10 +2215,10 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>36</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>39</v>
       </c>
     </row>
@@ -1014,10 +2229,10 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>41</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>43</v>
       </c>
     </row>
@@ -1028,10 +2243,10 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>45</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>47</v>
       </c>
     </row>
@@ -1042,10 +2257,10 @@
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>49</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>53</v>
       </c>
     </row>
@@ -1056,10 +2271,10 @@
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>51</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>56</v>
       </c>
     </row>
@@ -1070,10 +2285,10 @@
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>58</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>63</v>
       </c>
     </row>
@@ -1084,10 +2299,10 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>64</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>66</v>
       </c>
     </row>
@@ -1098,10 +2313,10 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>68</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>68</v>
       </c>
     </row>
@@ -1112,10 +2327,10 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>69</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>75</v>
       </c>
     </row>
@@ -1126,10 +2341,10 @@
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>77</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>82</v>
       </c>
     </row>
@@ -1140,10 +2355,10 @@
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>84</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>84</v>
       </c>
     </row>
@@ -1154,10 +2369,10 @@
       <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>85</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>85</v>
       </c>
     </row>
@@ -1168,10 +2383,10 @@
       <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>86</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>88</v>
       </c>
     </row>
@@ -1182,10 +2397,10 @@
       <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>90</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>93</v>
       </c>
     </row>
@@ -1196,10 +2411,10 @@
       <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>94</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>96</v>
       </c>
     </row>
@@ -1210,10 +2425,10 @@
       <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>97</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>98</v>
       </c>
     </row>
@@ -1224,10 +2439,10 @@
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>99</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>99</v>
       </c>
     </row>
